--- a/DOPCrun/23712000.xlsx
+++ b/DOPCrun/23712000.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H132"/>
+  <dimension ref="A1:H125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,656 +429,621 @@
     </row>
     <row r="2" spans="1:8">
       <c r="D2">
-        <v>3.26585</v>
+        <v>1.8461</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="D3">
-        <v>1.9152</v>
+        <v>0.00485</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="D4">
-        <v>0.00355</v>
+        <v>1.29575</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="D5">
-        <v>0.008700000000000001</v>
+        <v>0.0027</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="D6">
-        <v>0.00235</v>
+        <v>0.11245</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="D7">
-        <v>1.1883</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="D8">
-        <v>0.00395</v>
+        <v>1.9152</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="D9">
-        <v>0.51935</v>
+        <v>0.00355</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="D10">
-        <v>0.0043</v>
+        <v>0.008700000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="D11">
-        <v>1.0101</v>
+        <v>0.00235</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="D12">
-        <v>0.00345</v>
+        <v>1.1883</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="D13">
-        <v>0.1452</v>
+        <v>0.00395</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="D14">
-        <v>0.0023</v>
+        <v>0.51935</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="D15">
-        <v>0.539</v>
+        <v>0.0043</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="D16">
-        <v>0.00375</v>
+        <v>1.0101</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17">
-        <v>0.0051</v>
+        <v>0.00345</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18">
-        <v>0.00245</v>
+        <v>0.1452</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19">
-        <v>0.9992500000000001</v>
+        <v>0.0023</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20">
-        <v>0.00215</v>
+        <v>0.539</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21">
-        <v>0.03445</v>
+        <v>0.00375</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22">
-        <v>0.00265</v>
+        <v>0.0051</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23">
-        <v>2.4392</v>
+        <v>0.00245</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24">
-        <v>0.00725</v>
+        <v>0.9992500000000001</v>
       </c>
     </row>
     <row r="25" spans="4:4">
       <c r="D25">
-        <v>0.05855</v>
+        <v>0.00215</v>
       </c>
     </row>
     <row r="26" spans="4:4">
       <c r="D26">
-        <v>0.01095</v>
+        <v>0.03445</v>
       </c>
     </row>
     <row r="27" spans="4:4">
       <c r="D27">
-        <v>0.17445</v>
+        <v>0.00265</v>
       </c>
     </row>
     <row r="28" spans="4:4">
       <c r="D28">
-        <v>0.0026</v>
+        <v>2.4392</v>
       </c>
     </row>
     <row r="29" spans="4:4">
       <c r="D29">
-        <v>0.05605</v>
+        <v>0.00725</v>
       </c>
     </row>
     <row r="30" spans="4:4">
       <c r="D30">
-        <v>0.006</v>
+        <v>0.05855</v>
       </c>
     </row>
     <row r="31" spans="4:4">
       <c r="D31">
-        <v>0.01515</v>
+        <v>0.01095</v>
       </c>
     </row>
     <row r="32" spans="4:4">
       <c r="D32">
-        <v>0.0028</v>
+        <v>0.17445</v>
       </c>
     </row>
     <row r="33" spans="4:4">
       <c r="D33">
-        <v>0.42635</v>
+        <v>0.0026</v>
       </c>
     </row>
     <row r="34" spans="4:4">
       <c r="D34">
-        <v>0.0036</v>
+        <v>0.05605</v>
       </c>
     </row>
     <row r="35" spans="4:4">
       <c r="D35">
-        <v>0.28775</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="36" spans="4:4">
       <c r="D36">
-        <v>0.0022</v>
+        <v>0.01515</v>
       </c>
     </row>
     <row r="37" spans="4:4">
       <c r="D37">
-        <v>1.39845</v>
+        <v>0.0028</v>
       </c>
     </row>
     <row r="38" spans="4:4">
       <c r="D38">
-        <v>0.0038</v>
+        <v>0.42635</v>
       </c>
     </row>
     <row r="39" spans="4:4">
       <c r="D39">
-        <v>0.3001</v>
+        <v>0.0036</v>
       </c>
     </row>
     <row r="40" spans="4:4">
       <c r="D40">
-        <v>0.00525</v>
+        <v>0.28775</v>
       </c>
     </row>
     <row r="41" spans="4:4">
       <c r="D41">
-        <v>0.05085</v>
+        <v>0.0022</v>
       </c>
     </row>
     <row r="42" spans="4:4">
       <c r="D42">
-        <v>0.0026</v>
+        <v>1.39845</v>
       </c>
     </row>
     <row r="43" spans="4:4">
       <c r="D43">
-        <v>1.92845</v>
+        <v>0.0038</v>
       </c>
     </row>
     <row r="44" spans="4:4">
       <c r="D44">
-        <v>0.008750000000000001</v>
+        <v>0.3001</v>
       </c>
     </row>
     <row r="45" spans="4:4">
       <c r="D45">
-        <v>0.0047</v>
+        <v>0.00525</v>
       </c>
     </row>
     <row r="46" spans="4:4">
       <c r="D46">
-        <v>1.2183</v>
+        <v>0.05085</v>
       </c>
     </row>
     <row r="47" spans="4:4">
       <c r="D47">
-        <v>0.00795</v>
+        <v>0.0026</v>
       </c>
     </row>
     <row r="48" spans="4:4">
       <c r="D48">
-        <v>0.11435</v>
+        <v>1.92845</v>
       </c>
     </row>
     <row r="49" spans="4:4">
       <c r="D49">
-        <v>0.0034</v>
+        <v>0.008750000000000001</v>
       </c>
     </row>
     <row r="50" spans="4:4">
       <c r="D50">
-        <v>0.05555</v>
+        <v>0.0047</v>
       </c>
     </row>
     <row r="51" spans="4:4">
       <c r="D51">
-        <v>0.0024</v>
+        <v>1.2183</v>
       </c>
     </row>
     <row r="52" spans="4:4">
       <c r="D52">
-        <v>1.2434</v>
+        <v>0.00795</v>
       </c>
     </row>
     <row r="53" spans="4:4">
       <c r="D53">
-        <v>0.0033</v>
+        <v>0.11435</v>
       </c>
     </row>
     <row r="54" spans="4:4">
       <c r="D54">
-        <v>0.28825</v>
+        <v>0.0034</v>
       </c>
     </row>
     <row r="55" spans="4:4">
       <c r="D55">
-        <v>0.00455</v>
+        <v>0.05555</v>
       </c>
     </row>
     <row r="56" spans="4:4">
       <c r="D56">
-        <v>0.7838000000000001</v>
+        <v>0.0024</v>
       </c>
     </row>
     <row r="57" spans="4:4">
       <c r="D57">
-        <v>0.00225</v>
+        <v>1.2434</v>
       </c>
     </row>
     <row r="58" spans="4:4">
       <c r="D58">
-        <v>0.09725</v>
+        <v>0.0033</v>
       </c>
     </row>
     <row r="59" spans="4:4">
       <c r="D59">
-        <v>0.0023</v>
+        <v>0.28825</v>
       </c>
     </row>
     <row r="60" spans="4:4">
       <c r="D60">
-        <v>0.7065</v>
+        <v>0.00455</v>
       </c>
     </row>
     <row r="61" spans="4:4">
       <c r="D61">
-        <v>0.0121</v>
+        <v>0.7838000000000001</v>
       </c>
     </row>
     <row r="62" spans="4:4">
       <c r="D62">
-        <v>0.24005</v>
+        <v>3.48685</v>
       </c>
     </row>
     <row r="63" spans="4:4">
       <c r="D63">
-        <v>0.00475</v>
+        <v>4.0018</v>
       </c>
     </row>
     <row r="64" spans="4:4">
       <c r="D64">
-        <v>2.0323</v>
+        <v>0.0036</v>
       </c>
     </row>
     <row r="65" spans="4:4">
       <c r="D65">
-        <v>0.0053</v>
+        <v>0.6508</v>
       </c>
     </row>
     <row r="66" spans="4:4">
       <c r="D66">
-        <v>0.14145</v>
+        <v>0.009300000000000001</v>
       </c>
     </row>
     <row r="67" spans="4:4">
       <c r="D67">
-        <v>0.00325</v>
+        <v>1.5003</v>
       </c>
     </row>
     <row r="68" spans="4:4">
       <c r="D68">
-        <v>0.2321</v>
+        <v>0.007900000000000001</v>
       </c>
     </row>
     <row r="69" spans="4:4">
       <c r="D69">
-        <v>0.00725</v>
+        <v>0.5245500000000001</v>
       </c>
     </row>
     <row r="70" spans="4:4">
       <c r="D70">
-        <v>4.0018</v>
+        <v>0.00595</v>
       </c>
     </row>
     <row r="71" spans="4:4">
       <c r="D71">
-        <v>0.0036</v>
+        <v>0.3348</v>
       </c>
     </row>
     <row r="72" spans="4:4">
       <c r="D72">
-        <v>0.6508</v>
+        <v>0.0043</v>
       </c>
     </row>
     <row r="73" spans="4:4">
       <c r="D73">
-        <v>0.009300000000000001</v>
+        <v>1.6029</v>
       </c>
     </row>
     <row r="74" spans="4:4">
       <c r="D74">
-        <v>1.5003</v>
+        <v>0.0034</v>
       </c>
     </row>
     <row r="75" spans="4:4">
       <c r="D75">
-        <v>0.007900000000000001</v>
+        <v>0.0048</v>
       </c>
     </row>
     <row r="76" spans="4:4">
       <c r="D76">
-        <v>0.5245500000000001</v>
+        <v>0.0027</v>
       </c>
     </row>
     <row r="77" spans="4:4">
       <c r="D77">
-        <v>0.00595</v>
+        <v>0.1436</v>
       </c>
     </row>
     <row r="78" spans="4:4">
       <c r="D78">
-        <v>0.3348</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="79" spans="4:4">
       <c r="D79">
-        <v>0.0043</v>
+        <v>1.4778</v>
       </c>
     </row>
     <row r="80" spans="4:4">
       <c r="D80">
-        <v>1.6029</v>
+        <v>0.00375</v>
       </c>
     </row>
     <row r="81" spans="4:4">
       <c r="D81">
-        <v>0.0034</v>
+        <v>1.82595</v>
       </c>
     </row>
     <row r="82" spans="4:4">
       <c r="D82">
-        <v>0.0048</v>
+        <v>0.0047</v>
       </c>
     </row>
     <row r="83" spans="4:4">
       <c r="D83">
-        <v>0.0027</v>
+        <v>1.5078</v>
       </c>
     </row>
     <row r="84" spans="4:4">
       <c r="D84">
-        <v>0.1436</v>
+        <v>0.0056</v>
       </c>
     </row>
     <row r="85" spans="4:4">
       <c r="D85">
-        <v>0.003</v>
+        <v>0.5879500000000001</v>
       </c>
     </row>
     <row r="86" spans="4:4">
       <c r="D86">
-        <v>1.4778</v>
+        <v>0.0022</v>
       </c>
     </row>
     <row r="87" spans="4:4">
       <c r="D87">
-        <v>0.00375</v>
+        <v>0.6259</v>
       </c>
     </row>
     <row r="88" spans="4:4">
       <c r="D88">
-        <v>1.82595</v>
+        <v>0.00325</v>
       </c>
     </row>
     <row r="89" spans="4:4">
       <c r="D89">
-        <v>0.0047</v>
+        <v>0.05605</v>
       </c>
     </row>
     <row r="90" spans="4:4">
       <c r="D90">
-        <v>1.5078</v>
+        <v>0.00585</v>
       </c>
     </row>
     <row r="91" spans="4:4">
       <c r="D91">
-        <v>0.0056</v>
+        <v>0.0209</v>
       </c>
     </row>
     <row r="92" spans="4:4">
       <c r="D92">
-        <v>0.5879500000000001</v>
+        <v>0.005350000000000001</v>
       </c>
     </row>
     <row r="93" spans="4:4">
       <c r="D93">
-        <v>0.0022</v>
+        <v>0.9528000000000001</v>
       </c>
     </row>
     <row r="94" spans="4:4">
       <c r="D94">
-        <v>0.6259</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="95" spans="4:4">
       <c r="D95">
-        <v>0.00325</v>
+        <v>0.44765</v>
       </c>
     </row>
     <row r="96" spans="4:4">
       <c r="D96">
-        <v>0.05605</v>
+        <v>0.0033</v>
       </c>
     </row>
     <row r="97" spans="4:4">
       <c r="D97">
-        <v>0.00585</v>
+        <v>0.7947500000000001</v>
       </c>
     </row>
     <row r="98" spans="4:4">
       <c r="D98">
-        <v>0.0209</v>
+        <v>0.0027</v>
       </c>
     </row>
     <row r="99" spans="4:4">
       <c r="D99">
-        <v>0.005350000000000001</v>
+        <v>1.73885</v>
       </c>
     </row>
     <row r="100" spans="4:4">
       <c r="D100">
-        <v>0.9528000000000001</v>
+        <v>0.00415</v>
       </c>
     </row>
     <row r="101" spans="4:4">
       <c r="D101">
-        <v>0.008</v>
+        <v>0.3914</v>
       </c>
     </row>
     <row r="102" spans="4:4">
       <c r="D102">
-        <v>0.44765</v>
+        <v>0.00465</v>
       </c>
     </row>
     <row r="103" spans="4:4">
       <c r="D103">
-        <v>0.0033</v>
+        <v>0.68815</v>
       </c>
     </row>
     <row r="104" spans="4:4">
       <c r="D104">
-        <v>0.7947500000000001</v>
+        <v>0.00215</v>
       </c>
     </row>
     <row r="105" spans="4:4">
       <c r="D105">
-        <v>0.0027</v>
+        <v>0.3677</v>
       </c>
     </row>
     <row r="106" spans="4:4">
       <c r="D106">
-        <v>1.73885</v>
+        <v>0.00625</v>
       </c>
     </row>
     <row r="107" spans="4:4">
       <c r="D107">
-        <v>0.00415</v>
+        <v>1.6174</v>
       </c>
     </row>
     <row r="108" spans="4:4">
       <c r="D108">
-        <v>0.3914</v>
+        <v>0.00255</v>
       </c>
     </row>
     <row r="109" spans="4:4">
       <c r="D109">
-        <v>0.00465</v>
+        <v>1.03375</v>
       </c>
     </row>
     <row r="110" spans="4:4">
       <c r="D110">
-        <v>0.68815</v>
+        <v>0.00335</v>
       </c>
     </row>
     <row r="111" spans="4:4">
       <c r="D111">
-        <v>0.00215</v>
+        <v>0.2764</v>
       </c>
     </row>
     <row r="112" spans="4:4">
       <c r="D112">
-        <v>0.3677</v>
+        <v>0.0036</v>
       </c>
     </row>
     <row r="113" spans="4:4">
       <c r="D113">
-        <v>0.00625</v>
+        <v>0.11275</v>
       </c>
     </row>
     <row r="114" spans="4:4">
       <c r="D114">
-        <v>1.6174</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="115" spans="4:4">
       <c r="D115">
-        <v>0.00255</v>
+        <v>4.209350000000001</v>
       </c>
     </row>
     <row r="116" spans="4:4">
       <c r="D116">
-        <v>1.03375</v>
+        <v>0.0023</v>
       </c>
     </row>
     <row r="117" spans="4:4">
       <c r="D117">
-        <v>0.00335</v>
+        <v>2.904</v>
       </c>
     </row>
     <row r="118" spans="4:4">
       <c r="D118">
-        <v>0.2764</v>
+        <v>0.00245</v>
       </c>
     </row>
     <row r="119" spans="4:4">
       <c r="D119">
-        <v>0.0036</v>
+        <v>0.8560500000000001</v>
       </c>
     </row>
     <row r="120" spans="4:4">
       <c r="D120">
-        <v>0.11275</v>
+        <v>0.0043</v>
       </c>
     </row>
     <row r="121" spans="4:4">
       <c r="D121">
-        <v>0.002</v>
+        <v>2.33475</v>
       </c>
     </row>
     <row r="122" spans="4:4">
       <c r="D122">
-        <v>4.209350000000001</v>
+        <v>0.0024</v>
       </c>
     </row>
     <row r="123" spans="4:4">
       <c r="D123">
-        <v>0.0023</v>
+        <v>1.37795</v>
       </c>
     </row>
     <row r="124" spans="4:4">
       <c r="D124">
-        <v>2.904</v>
+        <v>0.0039</v>
       </c>
     </row>
     <row r="125" spans="4:4">
       <c r="D125">
-        <v>0.00245</v>
-      </c>
-    </row>
-    <row r="126" spans="4:4">
-      <c r="D126">
-        <v>0.8560500000000001</v>
-      </c>
-    </row>
-    <row r="127" spans="4:4">
-      <c r="D127">
-        <v>0.0043</v>
-      </c>
-    </row>
-    <row r="128" spans="4:4">
-      <c r="D128">
-        <v>2.33475</v>
-      </c>
-    </row>
-    <row r="129" spans="4:4">
-      <c r="D129">
-        <v>0.0024</v>
-      </c>
-    </row>
-    <row r="130" spans="4:4">
-      <c r="D130">
-        <v>1.37795</v>
-      </c>
-    </row>
-    <row r="131" spans="4:4">
-      <c r="D131">
-        <v>0.0039</v>
-      </c>
-    </row>
-    <row r="132" spans="4:4">
-      <c r="D132">
         <v>0.8321500000000001</v>
       </c>
     </row>
